--- a/Grafiken_Pool/Datenreihen/Simu/Energie_1-80.xlsx
+++ b/Grafiken_Pool/Datenreihen/Simu/Energie_1-80.xlsx
@@ -458,9 +458,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -736,7 +734,9 @@
               <a:noFill/>
               <a:ln w="50800" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1012,10 +1012,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1291,7 +1288,9 @@
               <a:noFill/>
               <a:ln w="50800" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1567,16 +1566,77 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2059480576"/>
-        <c:axId val="-2059445472"/>
+        <c:axId val="1923249872"/>
+        <c:axId val="-2072430576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2059480576"/>
+        <c:axId val="1923249872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800"/>
+                  <a:t>Anzahl der</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800" baseline="0"/>
+                  <a:t> gleichzeitig antwortenden Frachtconteiner</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1595,11 +1655,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1614,15 +1674,16 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059445472"/>
+        <c:crossAx val="-2072430576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="1"/>
+        <c:tickLblSkip val="3"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2059445472"/>
+        <c:axId val="-2072430576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4.5"/>
@@ -1643,6 +1704,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800"/>
+                  <a:t>Energieverbrauch</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800" baseline="0"/>
+                  <a:t> [mWs]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1658,7 +1780,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1673,7 +1795,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059480576"/>
+        <c:crossAx val="1923249872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1691,9 +1813,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0554980076593063"/>
-          <c:y val="0.135720481097499"/>
-          <c:w val="0.0998864909518768"/>
+          <c:x val="0.118998"/>
+          <c:y val="0.0445861111111111"/>
+          <c:w val="0.176086444444444"/>
           <c:h val="0.138374685212468"/>
         </c:manualLayout>
       </c:layout>
@@ -1710,7 +1832,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1735,12 +1857,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2329,10 +2446,10 @@
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>100</xdr:col>
-      <xdr:colOff>790222</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>567199</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>151225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2627,8 +2744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:CI88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:AR6"/>
+    <sheetView tabSelected="1" topLeftCell="CH1" workbookViewId="0">
+      <selection activeCell="CV24" sqref="CV24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
